--- a/data_formatted/espn2007.xlsx
+++ b/data_formatted/espn2007.xlsx
@@ -19,7 +19,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Jones | Matt</t>
+  </si>
+  <si>
+    <t>Jennings | Greg</t>
+  </si>
+  <si>
+    <t>Marshall | Brandon</t>
+  </si>
+  <si>
+    <t>Crayton | Patrick</t>
+  </si>
   <si>
     <t>Welker | Wes</t>
   </si>
@@ -60,156 +72,6 @@
     <t>Colston | Marques</t>
   </si>
   <si>
-    <t>Steve Smith</t>
-  </si>
-  <si>
-    <t>Marvin Harrison</t>
-  </si>
-  <si>
-    <t>Terrell Owens</t>
-  </si>
-  <si>
-    <t>Reggie Wayne</t>
-  </si>
-  <si>
-    <t>Chad Johnson</t>
-  </si>
-  <si>
-    <t>Javon Walker</t>
-  </si>
-  <si>
-    <t>Torry Holt</t>
-  </si>
-  <si>
-    <t>Larry Fitzgerald</t>
-  </si>
-  <si>
-    <t>Marques Colston</t>
-  </si>
-  <si>
-    <t>Roy Williams</t>
-  </si>
-  <si>
-    <t>Plaxico Burress</t>
-  </si>
-  <si>
-    <t>T.J. Houshmandzadeh</t>
-  </si>
-  <si>
-    <t>Darrell Jackson</t>
-  </si>
-  <si>
-    <t>Anquan Boldin</t>
-  </si>
-  <si>
-    <t>Andre Johnson</t>
-  </si>
-  <si>
-    <t>Lee Evans</t>
-  </si>
-  <si>
-    <t>Hines Ward</t>
-  </si>
-  <si>
-    <t>Joey Galloway</t>
-  </si>
-  <si>
-    <t>Santonio Holmes</t>
-  </si>
-  <si>
-    <t>Santana Moss</t>
-  </si>
-  <si>
-    <t>Reggie Brown</t>
-  </si>
-  <si>
-    <t>Laveranues Coles</t>
-  </si>
-  <si>
-    <t>Mark Clayton</t>
-  </si>
-  <si>
-    <t>Jerricho Cotchery</t>
-  </si>
-  <si>
-    <t>Donald Driver</t>
-  </si>
-  <si>
-    <t>Braylon Edwards</t>
-  </si>
-  <si>
-    <t>Deion Branch</t>
-  </si>
-  <si>
-    <t>D.J. Hackett</t>
-  </si>
-  <si>
-    <t>Joe Horn</t>
-  </si>
-  <si>
-    <t>Randy Moss</t>
-  </si>
-  <si>
-    <t>Donte' Stallworth</t>
-  </si>
-  <si>
-    <t>Vincent Jackson</t>
-  </si>
-  <si>
-    <t>Devery Henderson</t>
-  </si>
-  <si>
-    <t>Chris Chambers</t>
-  </si>
-  <si>
-    <t>Terry Glenn</t>
-  </si>
-  <si>
-    <t>Eddie Kennison</t>
-  </si>
-  <si>
-    <t>Bernard Berrian</t>
-  </si>
-  <si>
-    <t>Calvin Johnson</t>
-  </si>
-  <si>
-    <t>Isaac Bruce</t>
-  </si>
-  <si>
-    <t>Ronald Curry</t>
-  </si>
-  <si>
-    <t>Drew Bennett</t>
-  </si>
-  <si>
-    <t>Mike Furrey</t>
-  </si>
-  <si>
-    <t>Matt Jones</t>
-  </si>
-  <si>
-    <t>Greg Jennings</t>
-  </si>
-  <si>
-    <t>Brandon Marshall</t>
-  </si>
-  <si>
-    <t>Patrick Crayton</t>
-  </si>
-  <si>
-    <t>Wes Welker</t>
-  </si>
-  <si>
-    <t>Ernest Wilford</t>
-  </si>
-  <si>
-    <t>Muhsin Muhammad</t>
-  </si>
-  <si>
-    <t>Derrick Mason</t>
-  </si>
-  <si>
     <t>Williams | Roy</t>
   </si>
   <si>
@@ -307,18 +169,6 @@
   </si>
   <si>
     <t>Furrey | Mike</t>
-  </si>
-  <si>
-    <t>Jones | Matt</t>
-  </si>
-  <si>
-    <t>Jennings | Greg</t>
-  </si>
-  <si>
-    <t>Marshall | Brandon</t>
-  </si>
-  <si>
-    <t>Crayton | Patrick</t>
   </si>
 </sst>
 </file>
@@ -695,569 +545,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
+      <c r="B50" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/data_formatted/espn2007.xlsx
+++ b/data_formatted/espn2007.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
